--- a/챕터 6,7요약_ver1-2.xlsx
+++ b/챕터 6,7요약_ver1-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\자바\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE0E27-B588-4FFE-B6DF-4C148FF838F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA5891-771F-422D-9D42-B04B2D300B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
+    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="메소드" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$B$1:$B$260</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$B$1:$B$268</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="274">
   <si>
     <t>1.소스파일 명과 public class의 이름이 일치해야된다.</t>
   </si>
@@ -2598,17 +2598,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1번. System.out.println(인스턴스.toString()); == 2번. System.out.println(인스턴스);  (*println의 기능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오버라이딩의 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든클래스는 Object클래스를 상속받음으로
-String toString( ) { System.out.println("프린트내용") } 와 같이 오버라이딩하면
-2번. 처럼활용하여 코드를 더 간결하게 쓸 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8758,13 +8748,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1247935</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>1362260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8802,13 +8792,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3353059</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>1324154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8846,13 +8836,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3543300</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5419987</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>2000525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8890,13 +8880,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38957</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>56483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4029075</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8934,13 +8924,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26228</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4095750</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8989,6 +8979,128 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>116982</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>85859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5295900</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>123293</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="그룹 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E455243-694B-43D5-B18A-3E8B50C36B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="355107" y="47196509"/>
+          <a:ext cx="5178918" cy="2266284"/>
+          <a:chOff x="712097" y="1817848"/>
+          <a:chExt cx="8270381" cy="3619101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="그림 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A22619-CCD8-4DD9-8DEF-F0C17BF9CBB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="712097" y="2265585"/>
+            <a:ext cx="5544324" cy="2591162"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="그림 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC5BE43-AE9E-4EA2-8D04-73019A124237}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6096000" y="1817848"/>
+            <a:ext cx="2886478" cy="1743318"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="그림 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8F26A8-A8FC-4547-92F6-6B9527EA289C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6096069" y="3712683"/>
+            <a:ext cx="2467319" cy="1724266"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9446,10 +9558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58664CD6-7745-491B-B5AC-CEE8B48E7512}">
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -9521,7 +9633,7 @@
     </row>
     <row r="17" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9563,17 +9675,17 @@
         <v>54</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9617,7 +9729,7 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9664,7 +9776,7 @@
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:2" s="14" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9720,12 +9832,12 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
@@ -9753,7 +9865,7 @@
     </row>
     <row r="69" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9780,7 +9892,7 @@
     <row r="75" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
@@ -9831,7 +9943,7 @@
     </row>
     <row r="87" spans="2:2" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
@@ -9850,7 +9962,7 @@
     </row>
     <row r="92" spans="2:2" ht="59.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -9883,7 +9995,7 @@
     </row>
     <row r="99" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
@@ -9923,32 +10035,32 @@
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
@@ -9962,7 +10074,7 @@
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
@@ -9972,17 +10084,17 @@
     </row>
     <row r="118" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
@@ -9992,7 +10104,7 @@
     </row>
     <row r="122" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B122" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
@@ -10024,7 +10136,7 @@
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
@@ -10055,7 +10167,7 @@
     </row>
     <row r="137" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B137" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
@@ -10065,530 +10177,550 @@
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" ht="59.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="3"/>
+    </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="67"/>
+    </row>
+    <row r="153" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="5" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="4"/>
-    </row>
-    <row r="150" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="27"/>
-    </row>
-    <row r="151" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="35" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="23"/>
-    </row>
-    <row r="157" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="8"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="27"/>
-    </row>
-    <row r="163" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="9" t="s">
-        <v>105</v>
-      </c>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="27"/>
+    </row>
+    <row r="159" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B164" s="23"/>
     </row>
     <row r="165" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B165" s="8"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" s="71" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="72"/>
-    </row>
-    <row r="170" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="27"/>
+    </row>
+    <row r="171" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="43" t="s">
-        <v>122</v>
+      <c r="B172" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B173" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="35" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" s="71" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B177" s="72"/>
     </row>
     <row r="178" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="180" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="41" t="s">
+      <c r="B178" s="41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="11" t="s">
-        <v>110</v>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="188" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B189" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="2" t="s">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="1" t="s">
+    <row r="197" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B197" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191"/>
-    </row>
-    <row r="192" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="27"/>
-    </row>
-    <row r="193" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="40"/>
-    </row>
-    <row r="200" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="47" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" s="48" t="s">
-        <v>132</v>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="27"/>
+    </row>
+    <row r="201" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B201" s="53" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="2" t="s">
-        <v>183</v>
+      <c r="B202" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="44" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B206" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B207" s="40"/>
+    </row>
+    <row r="208" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B208" s="47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B211" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="3" t="s">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B216" s="37"/>
+    </row>
+    <row r="217" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B217" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B218" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B220" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" ht="39.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B222" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B227" s="69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="70"/>
+    </row>
+    <row r="229" spans="2:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="27"/>
+    </row>
+    <row r="230" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="37"/>
-    </row>
-    <row r="209" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="46" t="s">
+    <row r="233" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B233" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B237" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B239" s="51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="27"/>
+    </row>
+    <row r="242" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" ht="39.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="23" t="s">
+    <row r="246" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B246" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B247" s="14"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B249" s="67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B253" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B254" s="14"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="57" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" s="56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" s="70"/>
-    </row>
-    <row r="221" spans="2:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="27"/>
-    </row>
-    <row r="222" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" s="49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="27"/>
-    </row>
-    <row r="234" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" s="17" t="s">
+    <row r="256" spans="2:2" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B256" s="58" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" s="29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="14"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="68" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" s="68" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="14"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" s="57" t="s">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="57" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="58" t="s">
+    <row r="258" spans="2:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="59"/>
+    </row>
+    <row r="259" spans="2:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B259" s="58" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" s="57" t="s">
+    <row r="260" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B260" s="60"/>
+    </row>
+    <row r="261" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B261" s="61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="59"/>
-    </row>
-    <row r="251" spans="2:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="58" t="s">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="57" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="60"/>
-    </row>
-    <row r="253" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="61" t="s">
+    <row r="263" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B263" s="62" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" s="57" t="s">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="63" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="62" t="s">
+    <row r="265" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B265" s="64" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B256" s="63" t="s">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" s="65" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="257" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="64" t="s">
+    <row r="267" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B267" s="66" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" s="65" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="66" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -10600,9 +10732,9 @@
     <brk id="63" min="1" max="1" man="1"/>
     <brk id="88" min="1" max="1" man="1"/>
     <brk id="123" min="1" max="1" man="1"/>
-    <brk id="149" min="1" max="1" man="1"/>
-    <brk id="190" min="1" max="1" man="1"/>
-    <brk id="232" min="1" max="1" man="1"/>
+    <brk id="157" min="1" max="1" man="1"/>
+    <brk id="198" min="1" max="1" man="1"/>
+    <brk id="240" min="1" max="1" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="109" man="1"/>
@@ -11604,141 +11736,141 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="76" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -11769,232 +11901,232 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
         <v>215</v>
-      </c>
-      <c r="C5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
         <v>218</v>
       </c>
-      <c r="C7" t="s">
-        <v>220</v>
-      </c>
       <c r="D7" s="79" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>222</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>227</v>
-      </c>
       <c r="F9" s="75" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" t="s">
         <v>259</v>
-      </c>
-      <c r="C11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" t="s">
         <v>266</v>
-      </c>
-      <c r="C12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="B13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>271</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/챕터 6,7요약_ver1-2.xlsx
+++ b/챕터 6,7요약_ver1-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\자바\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA5891-771F-422D-9D42-B04B2D300B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD778FF5-71B8-41CA-8131-DBB5062F3ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
+    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
   <si>
     <t>1.소스파일 명과 public class의 이름이 일치해야된다.</t>
   </si>
@@ -6964,10 +6964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>start인덱스부터  edn인덱스까지 문자열 반환,  start만 입력시 문자끝까지 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://coding-factory.tistory.com/126</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7737,6 +7733,14 @@
       </rPr>
       <t>★</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start인덱스부터  end인덱스까지 문자열 반환,  start만 입력시 문자끝까지 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없으면-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8362,7 +8366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -8474,6 +8478,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8483,7 +8567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8723,6 +8807,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9560,7 +9677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58664CD6-7745-491B-B5AC-CEE8B48E7512}">
   <dimension ref="A1:B267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
@@ -9633,7 +9750,7 @@
     </row>
     <row r="17" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9892,7 +10009,7 @@
     <row r="75" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="39" thickBot="1" x14ac:dyDescent="0.35">
@@ -10516,7 +10633,7 @@
     </row>
     <row r="220" spans="2:2" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="221" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
@@ -10532,7 +10649,7 @@
     <row r="223" spans="2:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
@@ -11736,7 +11853,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="73" t="s">
         <v>205</v>
@@ -11765,7 +11882,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -11781,96 +11898,96 @@
     <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="77" t="s">
         <v>230</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s">
         <v>233</v>
-      </c>
-      <c r="C14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="75" t="s">
         <v>237</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -11888,8 +12005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB6E58-9926-4E89-ABB8-474F0F1CD229}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11910,7 +12027,7 @@
         <v>190</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" s="73" t="s">
         <v>191</v>
@@ -11930,7 +12047,7 @@
         <v>207</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>208</v>
@@ -11947,7 +12064,7 @@
         <v>209</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
         <v>210</v>
@@ -11964,13 +12081,13 @@
         <v>194</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -11981,64 +12098,67 @@
         <v>214</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="C6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>217</v>
       </c>
+      <c r="F6" s="72" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="86" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" s="74" t="s">
+      <c r="D8" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>221</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -12046,19 +12166,19 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
         <v>223</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>225</v>
-      </c>
       <c r="F9" s="75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -12069,13 +12189,13 @@
         <v>216</v>
       </c>
       <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" t="s">
         <v>226</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>256</v>
-      </c>
-      <c r="E10" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12083,50 +12203,50 @@
         <v>206</v>
       </c>
       <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
         <v>257</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" t="s">
         <v>258</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="C12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="79" t="s">
+      <c r="E12" t="s">
         <v>265</v>
-      </c>
-      <c r="E12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" t="s">
         <v>268</v>
       </c>
-      <c r="B13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="E13" t="s">
         <v>270</v>
-      </c>
-      <c r="E13" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -12136,5 +12256,6 @@
     <hyperlink ref="F9" r:id="rId2" xr:uid="{EA7917E2-B224-4EC8-AB14-D3369F4BFC01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/챕터 6,7요약_ver1-2.xlsx
+++ b/챕터 6,7요약_ver1-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125BAA04-EC72-45B7-A6BD-62BECE4796AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F25743-B6FF-474A-B7CB-0C7113C2EB07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>bitcamp</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{C5AE2234-511B-46E1-98F2-EA6ABB899849}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{C5AE2234-511B-46E1-98F2-EA6ABB899849}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="333">
   <si>
     <t>1.소스파일 명과 public class의 이름이 일치해야된다.</t>
   </si>
@@ -6057,12 +6057,361 @@
     <t>&lt;T&gt;(제네릭)이 들어간 메서드가 제네릭 메서드이다. &lt;T&gt;메서드 명 앞에 위치 [타입 결정시기 : 메서드 호출 시]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매개변수화 타입을 제한(상속)할 경우 앞의 매개변수화 타입의 타입과 같아야한다.
+예) SteelBox&lt;T&gt; extends Box&lt;T&gt;
+Box&lt;Integer&gt;  -&gt; SteelBox&lt;Integer&gt;  // 상속 
+Box&lt;String&gt;  -&gt; SteelBox&lt;String&gt;  //  상속
+Box&lt;Integer&gt;  -&gt; SteelBox&lt;String&gt;  // 상속관계 X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타겟 타입  : 제네릭 메서드를 호출할 때 메서드의 타입을 유추하는 타입을 가리키는 것</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Box&lt;?&gt; box ) 와 (Box&lt;T&gt; box) 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능적으로 제네릭 메서드와 와일드카드 기반 메서드와 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드카드 기반 메서드의 정의가 더 권장되어지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드카드는 제한방법이 두가지 :     extends / super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드의 안정성 상향 = 프로그래머가 실수 할 수 있는 부분을 컴파일러가 체크하게 구현하는 코드 = 기능은 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extends 상한 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Box&lt;? extends Number&gt; box)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Number클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만 사용(제네릭 메서드와 같음 개념)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super 하한 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Box&lt;? super Integer&gt; box)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer 클래스 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>만 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box&lt;? super Toy&gt; box   -&gt; 대상으로 꺼내는 건 불가! 넣는 건 가능  =&gt;  set( ) Ok / get( ) No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드 카드의 오버라이딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type Erasure때문에 와일드 카드만 있을 경우 오버라이딩 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public static void outBox(Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; box) {...}
+public static void outBox(Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Robot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; box) {...}
+이것이 대안!
+public static &lt;T&gt; void outBox (Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; box) {...}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 인터페이스에도 제네릭 사용이 가능하다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box&lt;T&gt; box로 오겠구나 / ? extends니까 넣는 것만 가능하겠구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*읽는 방법 : 뒤에서 부터 읽기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Box&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>? extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> T&gt; box</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box&lt;? extends Toy&gt; box  -&gt; 대상으로 넣는 건 불가! 꺼내는 건 가능  =&gt;  set( ) No / get( ) Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private static double round(double d, int n) {
+       double ten=10;
+       for (int j = 1; j &lt; n; j++) {
+			       ten *=10;
+       }
+      double round = (int)(d*ten+0.5)/ten;
+      return round;
+	 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private static double round(double d, int n) {
+		return Math.round(d * Math.pow(10, n))/Math.pow(10, n);
+	}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.pow(밑수, 지수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밑수를 지수만큼 제곱함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 숫자 뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(int)(Math.random()*(경우의수))+(시작수);  -랜덤 숫자뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6390,6 +6739,14 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6411,7 +6768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -6604,10 +6961,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -6616,43 +6973,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -6664,7 +6984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6911,26 +7231,38 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7215,7 +7547,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="355107" y="41548184"/>
+          <a:off x="355107" y="41757734"/>
           <a:ext cx="5178918" cy="1923384"/>
           <a:chOff x="712097" y="1817848"/>
           <a:chExt cx="8270381" cy="3619101"/>
@@ -7309,6 +7641,189 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7610475</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>1657350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AC6BEF-F92F-4453-8375-A3A9905C5B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="295275" y="80143350"/>
+          <a:ext cx="7553325" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6600825</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2ADC46-9648-4F4D-B55C-3163781D67B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="247650" y="88687275"/>
+          <a:ext cx="6591300" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3B73D1-F6E9-4253-9F67-5A3823DFEE74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="238125" y="90744675"/>
+          <a:ext cx="10391775" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7766,10 +8281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58664CD6-7745-491B-B5AC-CEE8B48E7512}">
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8019,7 +8534,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B57" s="45" t="s">
         <v>9</v>
       </c>
@@ -8996,53 +9511,54 @@
         <v>162</v>
       </c>
     </row>
+    <row r="284" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B285" s="88" t="s">
+      <c r="B285" s="82" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="286" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B286" s="82" t="s">
+      <c r="B286" s="83" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="287" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B287" s="83" t="s">
+      <c r="B287" s="84" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="288" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B288" s="84" t="s">
+      <c r="B288" s="85" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="289" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B289" s="84" t="s">
+      <c r="B289" s="85" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="290" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B290" s="84" t="s">
+      <c r="B290" s="85" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="291" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B291" s="85" t="s">
+      <c r="B291" s="86" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B292" s="86" t="s">
+      <c r="B292" s="34" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" s="86" t="s">
+      <c r="B293" s="34" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B294" s="86" t="s">
+      <c r="B294" s="34" t="s">
         <v>296</v>
       </c>
     </row>
@@ -9050,6 +9566,155 @@
       <c r="B295" s="87" t="s">
         <v>294</v>
       </c>
+    </row>
+    <row r="296" spans="2:2" ht="84.75" x14ac:dyDescent="0.3">
+      <c r="B296" s="88" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B297" s="91" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B298" s="86" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="301" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B305" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" s="38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B307" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" s="46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B310" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B312" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" s="89" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B315" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B317" s="32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" s="90" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B320" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B323" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" s="3"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" s="3"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" s="3"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" s="28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10050,10 +10715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D481FBFF-7BAC-4DD9-888C-C5EE64EBC775}">
-  <dimension ref="B1:C31"/>
+  <dimension ref="B1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10085,146 +10750,168 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+    <row r="5" spans="2:3" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="92" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="92" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+    <row r="12" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+    <row r="16" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+    <row r="17" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="8" t="s">
+    <row r="18" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="13" t="s">
+    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+    <row r="23" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
+    <row r="31" spans="2:3" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
+    <row r="33" spans="2:2" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="8" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" location="%25EB%25AC%25B8%25EC%259E%2590-%25EB%25B0%25B0%25EC%2597%25B4%25EC%259D%2584-%25EC%2596%25BB%25EA%25B8%25B0%25EC%259C%2584%25ED%2595%259Cstring.tochararray" xr:uid="{B1488943-54D9-4D20-93DE-418C0C0CD1E7}"/>
-    <hyperlink ref="C11" r:id="rId2" display="https://www.delftstack.com/ko/tags/java/" xr:uid="{FD1EE586-B77A-48D9-AEF0-B92585AE052A}"/>
+    <hyperlink ref="C20" r:id="rId1" location="%25EB%25AC%25B8%25EC%259E%2590-%25EB%25B0%25B0%25EC%2597%25B4%25EC%259D%2584-%25EC%2596%25BB%25EA%25B8%25B0%25EC%259C%2584%25ED%2595%259Cstring.tochararray" xr:uid="{B1488943-54D9-4D20-93DE-418C0C0CD1E7}"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://www.delftstack.com/ko/tags/java/" xr:uid="{FD1EE586-B77A-48D9-AEF0-B92585AE052A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB6E58-9926-4E89-ABB8-474F0F1CD229}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.625" customWidth="1"/>
+    <col min="5" max="5" width="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10458,6 +11145,23 @@
       </c>
       <c r="E13" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/챕터 6,7요약_ver1-2.xlsx
+++ b/챕터 6,7요약_ver1-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F25743-B6FF-474A-B7CB-0C7113C2EB07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0218C8-4D79-45E3-9ECD-5ACF45B86C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -6075,32 +6075,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>매개변수화 타입을 제한(상속)할 경우 앞의 매개변수화 타입의 타입과 같아야한다.
-예) SteelBox&lt;T&gt; extends Box&lt;T&gt;
-Box&lt;Integer&gt;  -&gt; SteelBox&lt;Integer&gt;  // 상속 
-Box&lt;String&gt;  -&gt; SteelBox&lt;String&gt;  //  상속
-Box&lt;Integer&gt;  -&gt; SteelBox&lt;String&gt;  // 상속관계 X</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>타겟 타입  : 제네릭 메서드를 호출할 때 메서드의 타입을 유추하는 타입을 가리키는 것</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6127,10 +6101,6 @@
   </si>
   <si>
     <t>와일드카드는 제한방법이 두가지 :     extends / super</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드의 안정성 상향 = 프로그래머가 실수 할 수 있는 부분을 컴파일러가 체크하게 구현하는 코드 = 기능은 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6208,10 +6178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Box&lt;? super Toy&gt; box   -&gt; 대상으로 꺼내는 건 불가! 넣는 건 가능  =&gt;  set( ) Ok / get( ) No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>와일드 카드의 오버라이딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6221,18 +6187,45 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">public static void outBox(Box&lt;? extends </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 인터페이스에도 제네릭 사용이 가능하다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*읽는 방법 : 뒤에서 부터 읽기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Box&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Toy</t>
+      <t>? extends</t>
     </r>
     <r>
       <rPr>
@@ -6243,118 +6236,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">&gt; box) {...}
-public static void outBox(Box&lt;? extends </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Robot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt; box) {...}
-이것이 대안!
-public static &lt;T&gt; void outBox (Box&lt;? extends </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; box) {...}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 인터페이스에도 제네릭 사용이 가능하다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box&lt;T&gt; box로 오겠구나 / ? extends니까 넣는 것만 가능하겠구나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*읽는 방법 : 뒤에서 부터 읽기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Box&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>? extends</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> T&gt; box</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box&lt;? extends Toy&gt; box  -&gt; 대상으로 넣는 건 불가! 꺼내는 건 가능  =&gt;  set( ) No / get( ) Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6404,6 +6287,145 @@
   </si>
   <si>
     <t>(int)(Math.random()*(경우의수))+(시작수);  -랜덤 숫자뽑기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box&lt;? super Toy&gt; box   -&gt;넣는 건 Ok , 꺼내는 건 불가! =&gt;  set( ) Ok / get( ) No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box&lt;? extends Toy&gt; box  -&gt;  꺼내는 건 Ok  ,넣는 건 불가!=&gt;  set( ) No / get( ) Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드의 안정성 향상 = 프로그래머가 실수 할 수 있는 부분을 컴파일러가 체크하게 구현하는 코드 = 기능은 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public static void outBox(Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; box) {...}
+public static void outBox(Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Robot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; box) {...}
+이것이 대안! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>타입매개변수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 사용~!
+public static &lt;T&gt; void outBox (Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; box) {...}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box&lt;T&gt; box로 오겠구나 / ? extends니까 꺼내는 것만 가능하겠구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제네릭의 타입이 같아야 상속관계가 성립된다.
+예) SteelBox&lt;T&gt; extends Box&lt;T&gt;
+Box&lt;Integer&gt;  -&gt; SteelBox&lt;Integer&gt;  // 상속 
+Box&lt;String&gt;  -&gt; SteelBox&lt;String&gt;  //  상속
+Box&lt;Integer&gt;  -&gt; SteelBox&lt;String&gt;  // 상속관계 X</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7547,7 +7569,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="355107" y="41757734"/>
+          <a:off x="355107" y="41548184"/>
           <a:ext cx="5178918" cy="1923384"/>
           <a:chOff x="712097" y="1817848"/>
           <a:chExt cx="8270381" cy="3619101"/>
@@ -8283,8 +8305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58664CD6-7745-491B-B5AC-CEE8B48E7512}">
   <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8534,7 +8556,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="45" t="s">
         <v>9</v>
       </c>
@@ -9567,19 +9589,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="84.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="88" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="297" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B297" s="91" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B298" s="86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="299" spans="2:2" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9588,112 +9610,112 @@
     <row r="301" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B305" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B310" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="33" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B312" s="32" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B315" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" s="33" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="317" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B317" s="32" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" s="90" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" s="34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="320" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B320" s="8" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="323" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B323" s="2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.3">
@@ -9707,7 +9729,7 @@
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" s="28" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.3">
@@ -10717,7 +10739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D481FBFF-7BAC-4DD9-888C-C5EE64EBC775}">
   <dimension ref="B1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -10752,12 +10774,12 @@
     </row>
     <row r="5" spans="2:3" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="92" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="92" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10879,12 +10901,12 @@
     <row r="34" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11149,19 +11171,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/챕터 6,7요약_ver1-2.xlsx
+++ b/챕터 6,7요약_ver1-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0218C8-4D79-45E3-9ECD-5ACF45B86C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68253ABD-CAE7-4E6A-9B5F-08D50F505AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="337">
   <si>
     <t>1.소스파일 명과 public class의 이름이 일치해야된다.</t>
   </si>
@@ -6426,6 +6426,22 @@
 Box&lt;String&gt;  -&gt; SteelBox&lt;String&gt;  //  상속
 Box&lt;Integer&gt;  -&gt; SteelBox&lt;String&gt;  // 상속관계 X</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equalsIgnoreCase("문자열")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대소문자를 구분하지 않고 비교합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8305,7 +8321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58664CD6-7745-491B-B5AC-CEE8B48E7512}">
   <dimension ref="A1:B341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
@@ -10923,10 +10939,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB6E58-9926-4E89-ABB8-474F0F1CD229}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11186,6 +11202,23 @@
         <v>324</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/챕터 6,7요약_ver1-2.xlsx
+++ b/챕터 6,7요약_ver1-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68253ABD-CAE7-4E6A-9B5F-08D50F505AF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10A9F57-0C1C-4C4B-94F7-C19E6DF4BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="메소드" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$B$1:$B$268</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$B$1:$B$270</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
     <author>bitcamp</author>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{C5AE2234-511B-46E1-98F2-EA6ABB899849}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{C5AE2234-511B-46E1-98F2-EA6ABB899849}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="334">
   <si>
     <t>1.소스파일 명과 public class의 이름이 일치해야된다.</t>
   </si>
@@ -139,12 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;생성자 this( )&gt;</t>
-  </si>
-  <si>
-    <t>&lt;참조변수 this&gt;</t>
-  </si>
-  <si>
     <t>인스턴스메서드(생성자 포함)에서만 사용가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>같은 클래스내 사용방법:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형태 : class 자식 클래스 extends 부모클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자손의 멤버개수가 조상보다 적을 수 없다.(같거나 많다)</t>
   </si>
   <si>
@@ -205,10 +191,6 @@
     <t>모든 클래스는 object클래스를 상속받는다</t>
   </si>
   <si>
-    <t>기존의(조상) 클래스에 새로운(자손) 클래스를 이어서 작성하는 것 (코드의 재사용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;조건&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>참조변수 super</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;생성자 super( )&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,14 +226,6 @@
     <t>사용 : 포함한객체.포함된객체.멤버</t>
   </si>
   <si>
-    <t>상속 : A은 B이다. (is -a)                           ex) 원은 점이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포함관계 : A은 B을 가지고 있다. (has-a)     ex) 원은 점을 가지고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하나의 대상에 여러 제어자를 같이 사용 가능 (접근 제어자는 하나만)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>private변수으로 직접 접근을 막고 , public메서드로 간접 접근 허용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메서드에 조건(메서드)을 넣어 값의 범위를 보호 / 또 내부내에서만 쓰는 메서드들은 private으로 하는게 좋다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +275,6 @@
   </si>
   <si>
     <t>예시) abstract play( ) , abstract stop( ) -&gt; 객체 Mp3, 객체 SellPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">추상메서드는 사용할 수 있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -395,26 +357,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 다중 상속이 가능(추상메서드는 충돌해도 문제 없음) 구현부가 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;다형성의 활용&gt; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조건2. 가변인자 사용하면 인자 미입력시에도 실행됨으로, 예외 혹인 방어코드 기재 필수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매개변수 가변인자 활용  -&gt; 어떤 타입이라도 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건1. 가변인자는 항상 파라미터 마지막에 있어야한다. =하나밖에 못쓴다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메서드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 선언부가 일치해야된다. (리턴타입, 매개변수 타입 및 순서 변경불가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,10 +442,6 @@
   </si>
   <si>
     <t>뒤에서부터 해당 단어를 찾아 해당 단어의 첫글자의 인덱스 번호를 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.substring(start,end)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -555,10 +493,6 @@
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형태: 매개변수 부분( String…strs )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,24 +557,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메소드가 중첩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>앞에서 부터 메소드 실행 -&gt; 해당 메소드의 결과값을 다시 뒤에 메소드로 실행 
 -&gt; 마지막 메소드의 결과값으로 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예시 : 전체문자열에서 중간부분만 가져오는 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체문자열에서 중간부분만 가져오는 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>substring(목표단어 시작인덱스, (목표단어부터 시작되는 문자열.에서 목표 끝인덱스+목표단어 시작인덱스)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -716,10 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.indexof("단어",start)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,10 +695,6 @@
       </rPr>
       <t>[ ]</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start인덱스부터  end인덱스까지 문자열 반환,  start만 입력시 문자끝까지 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2539,309 +2453,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같은 클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내에서 멤머들 간 사용(호출or참조)은 별도의</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 객체를 생성하지않고 사용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">가능하다.
-단, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스멤버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 인스턴스멤버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 사용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하는 경우에는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인스턴스를 생성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해야된다.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-인스턴스멤버가 존재하는 시점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 클래스 멤버는 항상 존재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하지만</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 클래스멤버가 존재하는 시점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 인스턴스멤버가 존재하지 않을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수도 있기 때문이다.
-또 클래스내에서 클래스 멤버가 인스턴스멤버를 사용하는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경우는 드물고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이경우 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인스턴스메서드로 작성해야할 메서드를 클래스메서드로 한 것은 아닌지 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다시 생각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해봐야된다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오버로딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이란?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">한 클래스 안에 </t>
     </r>
     <r>
@@ -2912,66 +2523,1191 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">&lt;성립조건&gt;
-1. 메서드 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름 동일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매개변수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>란?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">생성자 이름=클래스 이름 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ( * 그래서 생성자는 대문자 시작 / 메서드는 소문자 시작 ) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리턴값이 없다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>( void 안붙임 -&gt; 항상없으니까 )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. 클래스는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반드시 한개이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 생성자를 가진다.  ( *객체 생성시 new 인스턴스명( ); 하는 이유)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">같은 클래스의 생성자에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른 생성자 호출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할 때 사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>다른생성자 호출시</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 첫 줄에서만 사용가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조상의 생성자를 호출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할 때 사용 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">,초기화블럭 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상속X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조상의 멤버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조상의 생성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출하여 초기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  (자식메서드는 자식 멤버만 초기화 한다) =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자기껀 자기가 초기화🧡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성자의 첫줄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반드시 다른 생성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">해야 한다. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  /   this( ) or super( )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본생성자 작성은 필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>~!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인스턴스 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 가리키는 참조변수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인스턴스 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 가리키는 참조변수 .</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조상멤버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">와 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자신멤버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">할 때 사용  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이란?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조상의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메서드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 자신에 맞게 변경하는 것       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*변수는 오버라이딩 불가🧡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. 자손의 접근제어자는 조상보다 좁은 범위로 할 수 없다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(접근범위 : 조상&gt;=자손)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.  자손의 예외는 조상의 예외보다 많이 선언 할 수 없다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(예외 개수 : 조상 &gt;=자손)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이란?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;상속vs포함&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  *90%-&gt;포함 / 상속은 꼭 필요한 경우만</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제어자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (modifier) =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형용사</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">클래스와 클래스의 멤버에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부가적인 의미 부여</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✅접근제어자 ◾public ◾protected ◾(default) ◾private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✅그외 ◾static , ◾final , ◾abstract, ◾native, ◾등..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✅접근제어자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◾public          제한없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">◾protected      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF00B050"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은 package</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="4"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자손 class</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">◾(default)       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF00B050"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은 package</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">◾private         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은 class</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✅그외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">◾static -클래스의, 공통적인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">◾final - 마지막의, 변경될 수 없는 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◾abstract - 추상의 , 미완성의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">클래스 - == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추상메서드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">메서드 - 선언부만 있고 구현부는 없는 메서드 == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추상메서드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt;인스턴스 생성불가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">추상클래스를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상속받아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완전한 클래스(구상클래스)를 만든후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 객체생성 가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다형성(polymorphism)  ★★★  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 조상에 자손을 담는다.   </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">타입 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조변수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자손</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">타입 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 다루는 것</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조상의 버튼(참조변수)으로 누르면 담겨있는 해당 자손객체가 실행. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(변수는 메서드로 접근)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Parents p = new Child( );  --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Child타입의 객체를 Parents타입의 p라는 참조변수에 담아사용--&gt; Parents클래스의 멤버만 사용 허용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다형적</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 매개변수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">참조형 매개변수는 메서드 호출시 , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자신과 같은 타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="나눔스퀘어_ac"/>
         <family val="3"/>
@@ -2982,350 +3718,83 @@
     <r>
       <rPr>
         <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">이 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>. (리턴 타입은 영향없다.)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>란?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">생성자 이름=클래스 이름 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> ( * 그래서 생성자는 대문자 시작 / 메서드는 소문자 시작 ) </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리턴값이 없다.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>( void 안붙임 -&gt; 항상없으니까 )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. 클래스는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반드시 한개이상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의 생성자를 가진다.  ( *객체 생성시 new 인스턴스명( ); 하는 이유)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">같은 클래스의 생성자에서 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다른 생성자 호출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할 때 사용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>다른생성자 호출시</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 첫 줄에서만 사용가능</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조상의 생성자를 호출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할 때 사용 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">,초기화블럭 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상속X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조상의 멤버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조상의 생성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호출하여 초기화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">  (자식메서드는 자식 멤버만 초기화 한다) =</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자기껀 자기가 초기화🧡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성자의 첫줄</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자손타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 인스턴스를 받을 수 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>void buy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(Product p)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> { } &lt;-- 매개변수 활용 가능객체: new Tv( ); new Computer( );</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다형적</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 객체 배열</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>조상타입의 배열</t>
     </r>
     <r>
       <rPr>
@@ -3346,601 +3815,64 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>반드시 다른 생성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">해야 한다. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>★</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">  /   this( ) or super( )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기본생성자 작성은 필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>~!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>★</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인스턴스 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을 가리키는 참조변수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지역변수(lv)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">와 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인스턴스변수(iv)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할때 사용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">인스턴스 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부모</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 가리키는 참조변수 .</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조상멤버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">와 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자신멤버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">할 때 사용  + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상속</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이란?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>자손은 조상의 모든 멤버(변수,메서드)를 상속받는다 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>🧡생성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, 초기화블럭 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제외</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오버라이딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이란?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">조상의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메서드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">를 자신에 맞게 변경하는 것       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>*변수는 오버라이딩 불가🧡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. 자손의 접근제어자는 조상보다 좁은 범위로 할 수 없다. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(접근범위 : 조상&gt;=자손)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.  자손의 예외는 조상의 예외보다 많이 선언 할 수 없다. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(예외 개수 : 조상 &gt;=자손)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이란?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;상속vs포함&gt;   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">  *90%-&gt;포함 / 상속은 꼭 필요한 경우만</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제어자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (modifier) =</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>형용사</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">클래스와 클래스의 멤버에 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부가적인 의미 부여</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✅접근제어자 ◾public ◾protected ◾(default) ◾private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✅그외 ◾static , ◾final , ◾abstract, ◾native, ◾등..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✅접근제어자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◾public          제한없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">◾protected      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF00B050"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같은 package</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>자손들의 객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 담을 수 있다.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  --&gt; 여러종류의 객체를 배열로 다룰 수 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조변수의 형변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;instanceof 연산자&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="13"/>
         <color theme="1"/>
         <rFont val="나눔스퀘어_ac"/>
@@ -3951,601 +3883,43 @@
     </r>
     <r>
       <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="4"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자손 class</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">◾(default)       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FF00B050"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같은 package</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">◾private         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같은 class</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✅그외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">◾static -클래스의, 공통적인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">◾final - 마지막의, 변경될 수 없는 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◾abstract - 추상의 , 미완성의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">클래스 - == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추상메서드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">메서드 - 선언부만 있고 구현부는 없는 메서드 == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추상메서드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> -&gt;인스턴스 생성불가</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">추상클래스를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상속받아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">서 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완전한 클래스(구상클래스)를 만든후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에 객체생성 가능</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">다형성(polymorphism)  ★★★  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 조상에 자손을 담는다.   </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">타입 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참조변수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">로 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자손</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">타입 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>객체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 다루는 것</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">조상의 버튼(참조변수)으로 누르면 담겨있는 해당 자손객체가 실행. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(변수는 메서드로 접근)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Parents p = new Child( );  --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Child타입의 객체를 Parents타입의 p라는 참조변수에 담아사용--&gt; Parents클래스의 멤버만 사용 허용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>◾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다형적</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 매개변수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">참조형 매개변수는 메서드 호출시 , </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자신과 같은 타입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 또는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자손타입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의 인스턴스를 받을 수 있다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>void buy</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(Product p)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> { } &lt;-- 매개변수 활용 가능객체: new Tv( ); new Computer( );</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>◾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다형적</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 객체 배열</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>조상타입의 배열</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">에 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자손들의 객체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 담을 수 있다.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">  --&gt; 여러종류의 객체를 배열로 다룰 수 있다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참조변수의 형변환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">참조변수(리모콘)를 변경함으로써 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용할 수 있는 멤버를 조절</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하기 위해
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>*참조형은 객체, 주소 모두 그대로 ↔ 기본형은 값이 달라짐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">     조상타입 참조변수: a ,자손클래스: B, 자손타입 참조변수: b</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형태:  if ( a instanceof B ) { B b  = (B)a };</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  -&gt; a참조변수에 실객체가 B타입이냐?-&gt; True면 복원해라</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">객체의 다운캐스팅 가능여부 검사. </t>
     </r>
     <r>
       <rPr>
@@ -4556,7 +3930,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>상속 관계</t>
+      <t>가능하면 true</t>
     </r>
     <r>
       <rPr>
@@ -4566,7 +3940,35 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">의 참조변수는 </t>
+      <t xml:space="preserve"> 반환</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>--&gt; 활용 예) 인터페이스로 매개변수를 받아 같은 가족인지 판별</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> *검사하는 클래스의 조상들도 true로 반환함. *</t>
     </r>
     <r>
       <rPr>
@@ -4577,7 +3979,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>서로</t>
+      <t>업캐스팅</t>
     </r>
     <r>
       <rPr>
@@ -4587,285 +3989,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> ◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>형변환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 및 ◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>복원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 가능 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">   *항상 붙이면됨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자손 -&gt; 조상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(업캐스팅) : 멤버개수 감소 -&gt;캐스팅 생략가능 (묵시적)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(선행)(조상리모컨으로 자손객체 사용)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-◾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조상 -&gt; 자손(다운캐스팅) : 멤버개수 증가-&gt;캐스팅 생략불가(명시적)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(후행)(조상리모컨을 자손리모컨으로 다시 바꾸는 것)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 실객체의(변형되어지는) 멤버 개수를 넘는 형변환은 불가하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">실객체 조상 -&gt; 자손 X  (4개 멤버 -&gt; 5개멤버로 증가 X)
-실객체 자손 -&gt; 조상 O  =&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>즉, 업캐스팅, 다운캐스팅케이스로만 형변환 가능하다는 말</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;instanceof 연산자&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">     조상타입 참조변수: a ,자손클래스: B, 자손타입 참조변수: b</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>형태:  if ( a instanceof B ) { B b  = (B)a };</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">  -&gt; a참조변수에 실객체가 B타입이냐?-&gt; True면 복원해라</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">객체의 다운캐스팅 가능여부 검사. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능하면 true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 반환</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>--&gt; 활용 예) 인터페이스로 매개변수를 받아 같은 가족인지 판별</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> *검사하는 클래스의 조상들도 true로 반환함. *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업캐스팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>은 무조건 true반환.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5279,85 +4402,6 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> ★</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>해당 인터페이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현한 클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인스턴스들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>받음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5887,169 +4931,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상속</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">관계  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인터페이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 둘다 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>extends</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">로 제한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">기호로 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여러개</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 제한 가능  / 예) &lt;T </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>extends</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> Number &amp; Eatable&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예) &lt;T&gt; -&gt; 제한없이 모든 타입을 받으면 .intValue( )메서드는 사용 불가하다. (.intValue( )가 없는 클레스가 올 수도 있음으로)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;T extends Number&gt; -&gt; Number클레스와 그 자손클레스들은 모두 .intValue( )메서드를 갖고 있음으로 제한시 사용 OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;T&gt;(제네릭)이 들어간 클레스가 제네릭 클래스이다. 클레스 명 &lt;T&gt;뒤에 위치 [타입 결정시기 : 인스턴스 생성 시]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6058,28 +4943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타겟 타입  : 제네릭 메서드를 호출할 때 메서드의 타입을 유추하는 타입을 가리키는 것</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>와일드 카드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6088,10 +4951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(Box&lt;?&gt; box ) 와 (Box&lt;T&gt; box) 같음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기능적으로 제네릭 메서드와 와일드카드 기반 메서드와 같음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6105,10 +4964,6 @@
   </si>
   <si>
     <t>extends 상한 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Box&lt;? extends Number&gt; box)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6142,10 +4997,6 @@
   </si>
   <si>
     <t>super 하한 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Box&lt;? super Integer&gt; box)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6290,116 +5141,1365 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Box&lt;? super Toy&gt; box   -&gt;넣는 건 Ok , 꺼내는 건 불가! =&gt;  set( ) Ok / get( ) No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box&lt;? extends Toy&gt; box  -&gt;  꺼내는 건 Ok  ,넣는 건 불가!=&gt;  set( ) No / get( ) Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드의 안정성 향상 = 프로그래머가 실수 할 수 있는 부분을 컴파일러가 체크하게 구현하는 코드 = 기능은 같다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">public static void outBox(Box&lt;? extends </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>Box&lt;T&gt; box로 오겠구나 / ? extends니까 꺼내는 것만 가능하겠구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equalsIgnoreCase("문자열")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대소문자를 구분하지 않고 비교합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 클래스 내에서만 가능한 사용방법:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인스턴스 메서드가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다른 인스턴스 메서드나 스태틱 메서드 사용 시</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 
+=&gt; 객체를 생성과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스명 호출하지 않고 사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가능. (==같은 클래스면 인스턴스는 메서드 이름만 불러서 사용) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클래스 메서드가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다른 스태틱 메서드 사용 시
+=&gt;클래스명 호출하지 않고 사용가능. /단, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인스턴스멤버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하는 경우에는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인스턴스를 생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해야된다.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+인스턴스멤버가 존재하는 시점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 클래스 멤버는 항상 존재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하지만</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 
+클래스멤버가 존재하는 시점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 인스턴스멤버가 존재하지 않을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수도 있기 때문이다.
+또 클래스내에서 클래스 멤버가 인스턴스멤버를 사용하는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우는 드물고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이경우 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인스턴스메서드로 작성해야할 메서드를 클래스메서드로 한 것은 아닌지 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시 생각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해봐야된다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;성립조건&gt;
+1. 메서드 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름 동일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매개변수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>. (리턴 타입은 영향없다.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선언부가 동일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해야된다. (리턴타입, 매개변수 타입 및 순서,개수 변경불가능)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;참조변수 super&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;생성자 this( )&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기화역할</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;참조변수 this&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포인터역할</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">형태 : class 자식 클래스 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFCC00CC"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 부모클래스</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>기존의(조상) 클래스에 새로운(자손)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 클래스를 이어서 작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는 것 (코드의 재사용)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>자손은 조상의 모든 멤버(변수,메서드)를 상속받는다 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🧡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 초기화블럭 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역변수(lv)와 인스턴스변수(iv)를 구별할때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오버라이딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이란?  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은 재료</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 비슷하거나 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른 맛</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 내는 것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">     / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은 차를 타지만 가는 길은 다름</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오버로딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이란?   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">여러가지 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른 재료</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 사용해서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은 맛</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 내는 것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  / 다른 캐릭터를 로딩해도 똑같이 약함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상속 : A은 B이다. (is -a)                           ex) 고릴라는 동물이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포함관계 : A은 B을 가지고 있다. (has-a)     ex) 오디오는 플레이기능을 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private변수으로 직접 접근을 막고 , public메서드로 간접 접근하여 사용 (getter &amp; setter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">참조변수(리모콘)를 변경함으로써 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할 수 있는 멤버를 조절</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하기 위해
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*참조형은 객체는 주소 전달로 값이 모두 그대로 ↔ 기본형은 값이 달라짐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 상속 관계의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 참조변수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형변환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 가능 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   *항상 붙이면됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자손 -&gt; 조상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(업캐스팅) : 멤버개수 감소 -&gt;캐스팅 생략가능 (묵시적)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(선행)(조상리모컨으로 자손객체 사용)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조상 -&gt; 자손(다운캐스팅) : 멤버개수 증가-&gt;캐스팅 생략불가(명시적)   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(후행)(조상리모컨을 자손리모컨으로 다시 바꾸는 것)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예)  부모클래스 : beta =&gt; 생성메서드(구현) ,삭제메서드(미구현) / 자식클래스 : open =&gt; 삭제메서드(구현)
+       beta b = new open( );  =&gt; beta의 참조변수 b로 삭제기능도 사용가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">참조변수에 담아 추상메서드는 사용할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>해당 인터페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현한 클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인스턴스들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다중 상속이 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(추상메서드는 충돌해도 문제 없음) 구현부가 없음  ==  (상속관계가 아닌 클래스들을 묶을 수 있다.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;T extends Number&gt; -&gt; Number클레스와 그 자손클레스들은 모두 .intValue( )메서드를 갖고 있음으로 제한 시 사용 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">관계 &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Toy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>인터페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 둘다 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 제한ok </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt; box) {...}
-public static void outBox(Box&lt;? extends </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Robot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt; box) {...}
-이것이 대안! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>타입매개변수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 사용~!
-public static &lt;T&gt; void outBox (Box&lt;? extends </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; box) {...}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box&lt;T&gt; box로 오겠구나 / ? extends니까 꺼내는 것만 가능하겠구나</t>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기호로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여러개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 제한 가능  / 예) &lt;T </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Number &amp; Eatable&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6420,7 +6520,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>제네릭의 타입이 같아야 상속관계가 성립된다.
+      <t>제네릭의 타입인자도 같아야 상속관계가 성립된다.
 예) SteelBox&lt;T&gt; extends Box&lt;T&gt;
 Box&lt;Integer&gt;  -&gt; SteelBox&lt;Integer&gt;  // 상속 
 Box&lt;String&gt;  -&gt; SteelBox&lt;String&gt;  //  상속
@@ -6429,19 +6529,363 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equalsIgnoreCase("문자열")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대소문자를 구분하지 않고 비교합니다.</t>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타겟 타입  : 제네릭 메서드를 호출할 때 메서드의 타입을 유추하는 타입을 가리키는 것</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Box&lt;?&gt;  box ) 와 (Box&lt;T&gt;  box) 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Box&lt;? extends Number&gt;  box)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Box&lt;? super Integer&gt;  box)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public static void outBox(Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;  box) {...}
+public static void outBox(Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Robot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;  box) {...}
+이것이 대안! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>타입매개변수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 사용~!
+public static &lt;T&gt; void outBox (Box&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;  box) {...}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Box&lt;? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Toy&gt;  box  -&gt;  꺼내는 건 Ok  ,넣는 건 불가!=&gt;  set( ) No / get( ) Ok  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/화살표방향이 위</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Box&lt;? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Toy&gt;  box   -&gt; 넣는 건 Ok , 꺼내는 건 불가! =&gt;  set( ) Ok / get( ) No  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  /화살표방향이 아래</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형태: 매개변수 부분( String...strs )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조건1. 가변인자는 항상 파라미터 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마지막</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에 있어야한다. =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>밖에 못쓴다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조건2. 가변인자 사용하면 인자 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>미입력시에도 실행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>됨으로, 예외 혹은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 방어코드 기재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 필수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>매개변수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 가변인자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  -&gt; 어떤 타입이라도 가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메소드가 중첩 (메소드 체이닝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.indexof("단어",from)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.substring(from,to)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from인덱스부터  to인덱스 전까지 문자열 반환, / from만 입력시 문자끝까지 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6449,7 +6893,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6785,6 +7229,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFCC00CC"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -7022,7 +7511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7302,6 +7791,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7309,6 +7807,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7326,13 +7829,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1247935</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>1362260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7370,13 +7873,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3353059</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>1324154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7414,13 +7917,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3543300</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5419987</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>2000525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7458,13 +7961,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38957</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>56483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4029075</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7502,13 +8005,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26228</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4095750</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7563,13 +8066,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>116982</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>85859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5295900</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>123293</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7585,7 +8088,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="355107" y="41548184"/>
+          <a:off x="355107" y="42424484"/>
           <a:ext cx="5178918" cy="1923384"/>
           <a:chOff x="712097" y="1817848"/>
           <a:chExt cx="8270381" cy="3619101"/>
@@ -7685,13 +8188,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7610475</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>1657350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7746,13 +8249,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6600825</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7807,13 +8310,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>355</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8319,10 +8822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58664CD6-7745-491B-B5AC-CEE8B48E7512}">
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8334,7 +8837,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
@@ -8349,7 +8852,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
@@ -8378,33 +8881,33 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="35" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8413,70 +8916,70 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="34" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="35" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="34" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="40" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
@@ -8490,12 +8993,12 @@
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="35" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8521,7 +9024,7 @@
     </row>
     <row r="44" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
@@ -8533,12 +9036,12 @@
     <row r="47" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="2:2" s="36" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8546,7 +9049,7 @@
     </row>
     <row r="51" spans="2:2" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="41" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -8559,17 +9062,17 @@
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="44" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="132" x14ac:dyDescent="0.3">
       <c r="B55" s="45" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="44" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="33" x14ac:dyDescent="0.3">
@@ -8579,7 +9082,7 @@
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="44" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8589,12 +9092,12 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="46" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="32" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
@@ -8606,363 +9109,371 @@
     <row r="64" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="31" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="32" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="31" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="32" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="2:2" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="41" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="31" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B73" s="33" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="32" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B76" s="31" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B78" s="95" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B80" s="33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="31" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="42"/>
-    </row>
-    <row r="89" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="42"/>
-    </row>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="42"/>
+    </row>
+    <row r="93" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="48" t="s">
-        <v>210</v>
-      </c>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="42"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="48" t="s">
-        <v>211</v>
+      <c r="B98" s="31" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="49" t="s">
-        <v>212</v>
+      <c r="B99" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="39" t="s">
-        <v>15</v>
+      <c r="B101" s="48" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="39" t="s">
-        <v>14</v>
+      <c r="B102" s="48" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="40" t="s">
-        <v>13</v>
+      <c r="B103" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="39" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="47" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="39" t="s">
-        <v>215</v>
+      <c r="B108" s="47" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="39" t="s">
-        <v>217</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="40" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="50" t="s">
-        <v>218</v>
+      <c r="B111" s="47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="51"/>
-    </row>
-    <row r="114" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="B113" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="52" t="s">
-        <v>219</v>
+      <c r="B115" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="50" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
+      <c r="B117" s="51"/>
+    </row>
+    <row r="118" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="47" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="52" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B122" s="40" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="53"/>
-    </row>
-    <row r="124" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="30"/>
-    </row>
-    <row r="125" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="31" t="s">
-        <v>223</v>
+      <c r="B123" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="40" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="35" t="s">
+      <c r="B127" s="53"/>
+    </row>
+    <row r="128" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="30"/>
+    </row>
+    <row r="129" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
+    <row r="139" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="39" t="s">
-        <v>227</v>
+      <c r="B140" s="31" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="39" t="s">
-        <v>228</v>
+      <c r="B141" s="35" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="52"/>
+      <c r="B143" s="39" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="52"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="52"/>
+      <c r="B144" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="39" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="52"/>
+      <c r="B146" s="47" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="52"/>
@@ -8979,763 +9490,762 @@
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="52"/>
     </row>
-    <row r="152" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="54"/>
-    </row>
-    <row r="153" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="52"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="52"/>
+    </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="47" t="s">
-        <v>40</v>
-      </c>
+      <c r="B154" s="52"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="52"/>
+    </row>
+    <row r="156" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="54"/>
+    </row>
+    <row r="157" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="53"/>
+    </row>
+    <row r="162" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="30"/>
+    </row>
+    <row r="163" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B165" s="40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="156" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="53"/>
-    </row>
-    <row r="158" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="30"/>
-    </row>
-    <row r="159" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="55" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="32"/>
-    </row>
-    <row r="165" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="29"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="55" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="32"/>
+    </row>
+    <row r="169" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B169" s="29"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B172" s="40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="30"/>
+    </row>
+    <row r="175" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B177" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B180" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B181" s="56"/>
+    </row>
+    <row r="182" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B190" s="40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="30"/>
-    </row>
-    <row r="171" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="39" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="56"/>
-    </row>
-    <row r="178" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="59" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="188" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="58" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="31" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="39" t="s">
-        <v>51</v>
+    <row r="191" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="192" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="58" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="40" t="s">
-        <v>52</v>
+      <c r="B193" s="58" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="55" t="s">
-        <v>243</v>
+      <c r="B194" s="31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="39" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="39" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B197" s="40" t="s">
-        <v>246</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="55" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="61"/>
-    </row>
-    <row r="200" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="30"/>
+      <c r="B199" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="39" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="201" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="38" t="s">
-        <v>247</v>
+      <c r="B201" s="40" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" s="52" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" s="52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="63" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="51"/>
-    </row>
-    <row r="208" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="64" t="s">
-        <v>84</v>
+      <c r="B203" s="61"/>
+    </row>
+    <row r="204" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="30"/>
+    </row>
+    <row r="205" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B205" s="62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="52" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="39" t="s">
-        <v>252</v>
+      <c r="B209" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B210" s="40" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="52" t="s">
-        <v>254</v>
+      <c r="B211" s="51"/>
+    </row>
+    <row r="212" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B212" s="64" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="52" t="s">
-        <v>255</v>
+      <c r="B213" s="47" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="39" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B215" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="65"/>
-    </row>
-    <row r="217" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="41" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" s="66" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="67" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" ht="33.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="38" t="s">
-        <v>262</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B219" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B220" s="65"/>
+    </row>
+    <row r="221" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B221" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B222" s="41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B223" s="66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B224" s="93" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="68" t="s">
-        <v>263</v>
+      <c r="B225" s="38" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="69" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="70"/>
-    </row>
-    <row r="229" spans="2:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="30"/>
-    </row>
-    <row r="230" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" s="47" t="s">
-        <v>60</v>
-      </c>
-    </row>
+      <c r="B226" s="68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="70"/>
+    </row>
+    <row r="230" spans="2:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="30"/>
+    </row>
+    <row r="231" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="50" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="47" t="s">
-        <v>62</v>
+      <c r="B232" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B234" s="50" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" s="67" t="s">
-        <v>267</v>
+      <c r="B235" s="47" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" s="52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" s="47" t="s">
+      <c r="B236" s="67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B238" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B240" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="30"/>
+    </row>
+    <row r="244" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="71" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="30"/>
-    </row>
-    <row r="242" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="36"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" s="47" t="s">
-        <v>81</v>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B248" s="35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="249" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="54" t="s">
-        <v>272</v>
-      </c>
+      <c r="B249" s="36"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" s="72" t="s">
-        <v>274</v>
+      <c r="B250" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B251" s="54" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" s="72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="36"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B255" s="73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="74" t="s">
-        <v>76</v>
-      </c>
+      <c r="B252" s="55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B255" s="50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B256" s="36"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="75"/>
-    </row>
-    <row r="259" spans="2:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="76"/>
-    </row>
-    <row r="261" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B262" s="73" t="s">
-        <v>275</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B258" s="74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="75"/>
+    </row>
+    <row r="261" spans="2:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B261" s="74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B262" s="76"/>
     </row>
     <row r="263" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="78" t="s">
-        <v>80</v>
+      <c r="B263" s="77" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="73" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="79" t="s">
-        <v>277</v>
+      <c r="B265" s="78" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" s="75" t="s">
-        <v>278</v>
+      <c r="B266" s="73" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="78" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="30"/>
-    </row>
-    <row r="270" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B271" s="31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B273" s="81" t="s">
-        <v>290</v>
+      <c r="B267" s="79" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B269" s="78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="30"/>
+    </row>
+    <row r="272" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" s="31" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B275" s="80" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B276" s="34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="35" t="s">
-        <v>287</v>
+      <c r="B274" s="78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B275" s="81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B276" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B277" s="80" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B278" s="39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="40" t="s">
-        <v>283</v>
+      <c r="B278" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B279" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="39" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B281" s="55" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B282" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B285" s="82" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B286" s="83" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B287" s="84" t="s">
-        <v>284</v>
+      <c r="B281" s="39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B282" s="40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B285" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" s="82" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="288" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B288" s="85" t="s">
-        <v>288</v>
+      <c r="B288" s="83" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="289" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B289" s="85" t="s">
-        <v>291</v>
+      <c r="B289" s="84" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="290" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B290" s="85" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
     </row>
     <row r="291" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B291" s="86" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B292" s="34" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" s="34" t="s">
-        <v>295</v>
+      <c r="B291" s="85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B292" s="85" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B293" s="86" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B295" s="87" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="88" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B297" s="91" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B298" s="86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B299" s="2"/>
-    </row>
-    <row r="301" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B302" s="46" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B303" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B297" s="87" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" ht="84.75" x14ac:dyDescent="0.3">
+      <c r="B298" s="88" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B299" s="91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B300" s="86" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" ht="135.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="303" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B304" s="33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B305" s="32" t="s">
-        <v>304</v>
+      <c r="B304" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" s="33" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B306" s="33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B308" s="46" t="s">
-        <v>306</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B308" s="32" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B309" s="33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B309" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B310" s="33" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B311" s="33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B312" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B313" s="89" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B314" s="33" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B315" s="33" t="s">
-        <v>311</v>
+      <c r="B311" s="46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B313" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" s="89" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" s="33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B317" s="32" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B318" s="90" t="s">
-        <v>312</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B317" s="33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B318" s="32" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B319" s="34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B320" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B321" s="6" t="s">
-        <v>315</v>
+      <c r="B319" s="90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B321" s="8" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B322" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B323" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B324" s="3"/>
+      <c r="B322" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B324" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" s="3"/>
@@ -9744,15 +10254,18 @@
       <c r="B326" s="3"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B327" s="28" t="s">
-        <v>317</v>
-      </c>
+      <c r="B327" s="3"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B328"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B341"/>
+      <c r="B328" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9761,11 +10274,11 @@
   <rowBreaks count="7" manualBreakCount="7">
     <brk id="34" min="1" max="1" man="1"/>
     <brk id="63" min="1" max="1" man="1"/>
-    <brk id="88" min="1" max="1" man="1"/>
-    <brk id="123" min="1" max="1" man="1"/>
-    <brk id="157" min="1" max="1" man="1"/>
-    <brk id="198" min="1" max="1" man="1"/>
-    <brk id="240" min="1" max="1" man="1"/>
+    <brk id="92" min="1" max="1" man="1"/>
+    <brk id="127" min="1" max="1" man="1"/>
+    <brk id="161" min="1" max="1" man="1"/>
+    <brk id="202" min="1" max="1" man="1"/>
+    <brk id="242" min="1" max="1" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="109" man="1"/>
@@ -9778,8 +10291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C9EA12-135F-4ACA-9D1D-87338E6F0D19}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10753,10 +11266,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D481FBFF-7BAC-4DD9-888C-C5EE64EBC775}">
-  <dimension ref="B1:C36"/>
+  <dimension ref="B1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10767,169 +11280,137 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="92" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="92" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
+    <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>120</v>
+      <c r="B10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="2" t="s">
-        <v>326</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" location="%25EB%25AC%25B8%25EC%259E%2590-%25EB%25B0%25B0%25EC%2597%25B4%25EC%259D%2584-%25EC%2596%25BB%25EA%25B8%25B0%25EC%259C%2584%25ED%2595%259Cstring.tochararray" xr:uid="{B1488943-54D9-4D20-93DE-418C0C0CD1E7}"/>
-    <hyperlink ref="C13" r:id="rId2" display="https://www.delftstack.com/ko/tags/java/" xr:uid="{FD1EE586-B77A-48D9-AEF0-B92585AE052A}"/>
+    <hyperlink ref="C15" r:id="rId1" location="%25EB%25AC%25B8%25EC%259E%2590-%25EB%25B0%25B0%25EC%2597%25B4%25EC%259D%2584-%25EC%2596%25BB%25EA%25B8%25B0%25EC%259C%2584%25ED%2595%259Cstring.tochararray" xr:uid="{B1488943-54D9-4D20-93DE-418C0C0CD1E7}"/>
+    <hyperlink ref="C8" r:id="rId2" display="https://www.delftstack.com/ko/tags/java/" xr:uid="{FD1EE586-B77A-48D9-AEF0-B92585AE052A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -10942,7 +11423,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10954,269 +11435,272 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>159</v>
+        <v>333</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/챕터 6,7요약_ver1-2.xlsx
+++ b/챕터 6,7요약_ver1-2.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4up45\Desktop\--main\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10A9F57-0C1C-4C4B-94F7-C19E6DF4BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36463B5A-01F6-463D-A67A-DC59C6FDFE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CC2A7233-9732-4EA4-8CD8-854856F6210A}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
     <sheet name="배열" sheetId="2" r:id="rId2"/>
     <sheet name="공식" sheetId="3" r:id="rId3"/>
     <sheet name="메소드" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$B$1:$B$270</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">요약!$B$1:$B$264</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,13 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="334">
-  <si>
-    <t>1.소스파일 명과 public class의 이름이 일치해야된다.</t>
-  </si>
-  <si>
-    <t>3.public이 없을 경우 main method가 있는 class명과 일치시켜야된다.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="415">
   <si>
     <t>1. Tv t; -&gt; 참조형변수 선언(리모컨)</t>
   </si>
@@ -80,20 +76,6 @@
   </si>
   <si>
     <t>3. t = new Tv(); -&gt;리모컨과 객체를 연결해주어야 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;소스파일명과 class명&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;클래스의 역할&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 설계도
-2. 데이터 + 함수
-3. 사용자 정의타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,10 +154,6 @@
   </si>
   <si>
     <t>iv,cv 초기화 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.하나의 소스파일에는 public은 하나만 허용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,98 +727,6 @@
   </si>
   <si>
     <r>
-      <t>하나의 데이터 저장할 수 있는 공간  
-◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기본형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; 실제 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을 저장         (불리언,문자형,정수형(4개),실수형(2개) =총 8개)
-◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참조형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; 메모리 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 저장   (배열,객체,클레스 등.. 기본형을 제외한 모든 것)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">&lt;선언위치에 따른 </t>
     </r>
     <r>
@@ -863,98 +749,6 @@
         <charset val="129"/>
       </rPr>
       <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>✅클래스 영역   ◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>instance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변수  --&gt;인스턴스 생성시 마다 생성
-                     ◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변수(=static,공유변수) --&gt; 클래스가 메모리에 올라갈 때 한번
-✅메서드 영역   ◾</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>local</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변수(lv,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변수) --&gt; 메서드 시작시 생성, 종료시 삭제  =매개변수</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2448,76 +2242,6 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">.메서드( ); </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">한 클래스 안에 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같은 이름의 메서드 여러 개</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한느 것 
--구현코드가 다르더라도 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같은 의미의 기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="나눔스퀘어_ac"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수행</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6888,12 +6612,744 @@
     <t>from인덱스부터  to인덱스 전까지 문자열 반환, / from만 입력시 문자끝까지 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">클래스 영역   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">변수  --&gt;인스턴스 생성시 마다 생성
+                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">변수(=static,공유변수) --&gt; 클래스가 메모리에 올라갈 때 한번
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">메서드 영역   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>local</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수(lv,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변수) --&gt; 메서드 시작시 생성, 종료시 삭제  =매개변수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한 클래스 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">안에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은 이름의 메서드 여러 개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한느 것 
+-구현코드가 다르더라도 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같은 의미의 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">하나의 데이터 저장할 수 있는 공간  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; 실제 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 저장         (불리언,문자형,정수형(4개),실수형(2개) =총 8개)   --&gt; 연산 가능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>◾</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; 메모리 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 저장   (배열,객체,클레스 등.. 기본형을 제외한 모든 것)  --&gt; 연산 불가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명1.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명2.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명3.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compile 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명1.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명2.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명3.class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용(use)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public class 클래스명1 {
+  멤버 들~~~
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public class 클래스명2 {
+  멤버 들~~~
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public class 클래스명3 {
+  멤버 들~~~
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>==&gt; 인스턴스를 만들어서 멤버에 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명1 참조형변수1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조형변수1 = new 클래스명1();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조형변수1.멤버에 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명2 참조형변수2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조형변수2 = new 클래스명2();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명2 참조형변수3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조형변수3 = new 클래스명3();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상속된 하위클래스에 의해서 인스턴스를 만들어서 추상클래스의 멤버에 접근할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현된 하위클래스에 의해서 인스턴스를 만들어서 인터페이스의 멤버에 접근할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract역할 : 인스턴스 생성 막는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>== 생성자를 private으로 두는 것과 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absract클래스에 abstract메서드가 한 개도 없어도 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접유 interface 클래스명3 {
+  private int SIZE = 10; //상수화
+  리턴 메이();
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public interface 서브클래스명3 extends {
+}
+public class 서브클래스명4 implements 서브클래스명3 {
+   public 리턴 메이() {
+   }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브클래스1 ref1 = new 서브클래스1();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public class 클래스명1 {
+  private int a;
+  접유 리턴 메이1() {
+       정의부
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puvlic class 서브클래스1 extends 클래스명1 {
+  접유 리턴 메이1_2() {
+       정의부
+   ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref1.메이1(); ==&gt;정적결합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스1 ref1 = new 서브클래스1();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List list = new ArraryList();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.add();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref1.메이1(); ==&gt;동적결합(dynamic vinding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public class 클래스명2 {
+  private int a;
+  접유 리턴 메이2() {
+       정의부
+   ]
+  접유 abstract 리턴 메이2_1();
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puvlic class 서브클래스2 extends 클래스명2 {
+   접유 리턴 메이()2-1{
+   }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브클래스2 ref2 = new 서브클래스2();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref2.메이2(); ==&gt;정적결합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스명2 ref2 = new 서브클래스2();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref2.메이2_1(); ==&gt;동적결합(dynamic vinding) ,다형성 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조상클래스의 참조변수로 자손클래스의 오버라이딩된 메서드를 불러오는것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규통장을 만듭니다. 원하는 번호를 누르세요.
+1. 저축 2. 적금 3. 대출 0. 종료   ==&gt; 다형성 적용
+1
+저축 관련 입력
+	고객이름? 김말자
+	입금액?  10,000,000
+	기간(년단위)?1
+    고객이름     계좌번호     입금액     기간      이율     이자     만기환급액          
+     김말자      100-0001  10,000,000     1        4.5%     연산          연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. ~~ 2. ~~ 3.~~
+ 입려파트
+ 출력파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> c  대출통장 : 큰 금액을 빌려서 이자와 원금을 갚는다. </t>
+  </si>
+  <si>
+    <t>고객이름 (v)</t>
+  </si>
+  <si>
+    <t>계좌번호</t>
+  </si>
+  <si>
+    <t>얼마빌린건지 (v)</t>
+  </si>
+  <si>
+    <t>월입금액</t>
+  </si>
+  <si>
+    <t>기간 (v)</t>
+  </si>
+  <si>
+    <t>이율</t>
+  </si>
+  <si>
+    <t>이자액</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  c  적금통장 : 큰 금액을 정기적으로 얼마씩 입금해서 만드는 것</t>
+  </si>
+  <si>
+    <t>월입금액 (v)</t>
+  </si>
+  <si>
+    <t>만기시 환급액</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c  저축통장 : 큰 금액을 맡겨놓고 이자를 받는 것</t>
+  </si>
+  <si>
+    <t>입금액 (v)</t>
+  </si>
+  <si>
+    <t>총금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연산();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cunstName : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountNum : String  ???? 자동으로 생성시켜줘야 한다?????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period : int  년단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate : double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest : long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total : long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000 + 1000 = 11000
+11000 / 기간(년) ==&gt; 기간 월단위로
+기간 3년 =&gt; 3*12
+11000 / (3*12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000 + (10000 * 10 /100) / (3*12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000 + (10000 * 10/100)*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7274,8 +7730,38 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7291,6 +7777,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7511,7 +8003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7800,6 +8292,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7829,13 +8351,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1247935</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>1362260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7873,13 +8395,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3353059</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>1324154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7917,13 +8439,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3543300</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5419987</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>2000525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7961,13 +8483,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38957</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>56483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4029075</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8005,13 +8527,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26228</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4095750</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8066,13 +8588,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>116982</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>85859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5295900</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>123293</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8088,8 +8610,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="355107" y="42424484"/>
-          <a:ext cx="5178918" cy="1923384"/>
+          <a:off x="353202" y="30129614"/>
+          <a:ext cx="5178918" cy="1957674"/>
           <a:chOff x="712097" y="1817848"/>
           <a:chExt cx="8270381" cy="3619101"/>
         </a:xfrm>
@@ -8188,13 +8710,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7610475</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>1657350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8249,13 +8771,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6600825</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8310,13 +8832,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8822,1463 +9344,1431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58664CD6-7745-491B-B5AC-CEE8B48E7512}">
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="28" customWidth="1"/>
     <col min="2" max="2" width="107" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="B1" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2" ht="6" customHeight="1">
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" thickBot="1">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="72.75" customHeight="1" thickBot="1">
+      <c r="B8" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" thickBot="1"/>
+    <row r="10" spans="1:2">
+      <c r="B10" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="88.5" customHeight="1">
+      <c r="B11" s="96" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75">
+      <c r="B12" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" thickBot="1">
+      <c r="B13" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" thickBot="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25" thickBot="1">
+      <c r="B17" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" thickBot="1">
+      <c r="B21" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" thickBot="1">
+      <c r="B24" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25" thickBot="1">
+      <c r="B27" s="40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="36"/>
+    </row>
+    <row r="29" spans="1:2" ht="6" customHeight="1">
+      <c r="B29" s="30"/>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" thickBot="1">
+      <c r="B30" s="36"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" thickBot="1">
+      <c r="B32" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="34" spans="2:2">
+      <c r="B34" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B38" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="36"/>
+    </row>
+    <row r="40" spans="2:2" ht="6" customHeight="1">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="2:2" ht="17.25" hidden="1" thickBot="1"/>
+    <row r="42" spans="2:2" hidden="1">
+      <c r="B42" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" s="36" customFormat="1" ht="17.25" hidden="1" thickBot="1">
+      <c r="B43" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="17.25" hidden="1" thickBot="1">
+      <c r="B44" s="36"/>
+    </row>
+    <row r="45" spans="2:2" ht="116.25" hidden="1" thickBot="1">
+      <c r="B45" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" hidden="1">
+      <c r="B46" s="42"/>
+    </row>
+    <row r="47" spans="2:2" hidden="1">
+      <c r="B47" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" hidden="1">
+      <c r="B48" s="44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="132" hidden="1">
+      <c r="B49" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" hidden="1">
+      <c r="B50" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="33" hidden="1">
+      <c r="B51" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" hidden="1">
+      <c r="B52" s="44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="122.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="B53" s="32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="54" spans="2:2" hidden="1">
+      <c r="B54" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="17.25" hidden="1" thickBot="1">
+      <c r="B55" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="42"/>
+    </row>
+    <row r="57" spans="2:2" ht="6" customHeight="1">
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="59" spans="2:2">
+      <c r="B59" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="33.75" thickBot="1">
+      <c r="B60" s="32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" hidden="1">
+      <c r="B62" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="17.25" hidden="1" thickBot="1">
+      <c r="B63" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="67.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="B65" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="18.75" hidden="1">
+      <c r="B66" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="49.5" hidden="1">
+      <c r="B67" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="83.25" hidden="1" thickBot="1">
+      <c r="B68" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="70" spans="2:2" ht="18.75">
+      <c r="B70" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="33.75" thickBot="1">
+      <c r="B71" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" customFormat="1" ht="17.25">
+      <c r="B72" s="95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" customFormat="1">
+      <c r="B73" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" customFormat="1" ht="17.25">
+      <c r="B74" s="33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" customFormat="1" ht="18" thickBot="1">
+      <c r="B75" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="77" spans="2:2" ht="19.5" thickBot="1">
+      <c r="B77" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="25.5" customHeight="1">
+      <c r="B78" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="25.5" customHeight="1">
+      <c r="B79" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B80" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="25.5" customHeight="1">
+      <c r="B81" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="25.5" customHeight="1">
+      <c r="B82" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B83" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="25.5" customHeight="1">
+      <c r="B84" s="38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="132" customHeight="1" thickBot="1">
+      <c r="B85" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="42"/>
+    </row>
+    <row r="87" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="88" spans="2:2">
+      <c r="B88" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="33.75" thickBot="1">
+      <c r="B89" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="50.25" thickBot="1">
+      <c r="B90" s="41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B91" s="42"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B93" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B97" s="49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B101" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B104" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B110" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="51"/>
+    </row>
+    <row r="112" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="113" spans="2:2">
+      <c r="B113" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B116" s="40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B120" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="53"/>
+    </row>
+    <row r="122" spans="2:2" ht="6.75" customHeight="1">
+      <c r="B122" s="30"/>
+    </row>
+    <row r="123" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="124" spans="2:2">
+      <c r="B124" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B126" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B132" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="134" spans="2:2">
+      <c r="B134" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B135" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B139" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-    </row>
-    <row r="11" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-    </row>
-    <row r="12" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="29"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="34" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" s="52"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="52"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="52"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="52"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="52"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="52"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="52"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="52"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="52"/>
+    </row>
+    <row r="150" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B150" s="54"/>
+    </row>
+    <row r="151" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="152" spans="2:2">
+      <c r="B152" s="47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B154" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="53"/>
+    </row>
+    <row r="156" spans="2:2" ht="6" customHeight="1">
+      <c r="B156" s="30"/>
+    </row>
+    <row r="157" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="158" spans="2:2">
+      <c r="B158" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B159" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="163.5" customHeight="1" thickBot="1">
+      <c r="B162" s="32"/>
+    </row>
+    <row r="163" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B163" s="29"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B166" s="40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="6" customHeight="1">
+      <c r="B168" s="30"/>
+    </row>
+    <row r="169" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="170" spans="2:2">
+      <c r="B170" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B171" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B174" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" s="57" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B175" s="56"/>
+    </row>
+    <row r="176" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B176" s="58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B180" s="60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B184" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="186" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B186" s="58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B187" s="58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B191" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B195" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="61"/>
+    </row>
+    <row r="198" spans="2:2" ht="6" customHeight="1">
+      <c r="B198" s="30"/>
+    </row>
+    <row r="199" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B199" s="62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B204" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B205" s="51"/>
+    </row>
+    <row r="206" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B206" s="64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B209" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B213" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B214" s="65"/>
+    </row>
+    <row r="215" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B215" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="42" customHeight="1" thickBot="1">
+      <c r="B216" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" ht="17.25">
+      <c r="B217" s="66" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="50.25" customHeight="1" thickBot="1">
+      <c r="B218" s="93" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B222" s="69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="70"/>
+    </row>
+    <row r="224" spans="2:2" ht="9" customHeight="1">
+      <c r="B224" s="30"/>
+    </row>
+    <row r="225" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="226" spans="2:2">
+      <c r="B226" s="47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B228" s="50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B232" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" ht="60.75" thickBot="1">
+      <c r="B234" s="71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B235" s="94" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" ht="8.25" customHeight="1">
+      <c r="B237" s="30"/>
+    </row>
+    <row r="238" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="239" spans="2:2">
+      <c r="B239" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B242" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B243" s="36"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B245" s="54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B249" s="50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B250" s="36"/>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" ht="104.25" customHeight="1" thickBot="1">
+      <c r="B252" s="74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" ht="90.75" customHeight="1">
+      <c r="B254" s="75"/>
+    </row>
+    <row r="255" spans="2:2" ht="32.25" thickBot="1">
+      <c r="B255" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B256" s="76"/>
+    </row>
+    <row r="257" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B257" s="77" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
-    </row>
-    <row r="35" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-    </row>
-    <row r="36" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="36"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="36"/>
-    </row>
-    <row r="46" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
-    </row>
-    <row r="47" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" s="36" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="36"/>
-    </row>
-    <row r="51" spans="2:2" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="42"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="132" x14ac:dyDescent="0.3">
-      <c r="B55" s="45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B57" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="42"/>
-    </row>
-    <row r="63" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
-    </row>
-    <row r="64" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="2:2" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B72" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B73" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B78" s="95" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B80" s="33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="42"/>
-    </row>
-    <row r="93" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="31" t="s">
+    <row r="258" spans="2:2">
+      <c r="B258" s="73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B259" s="78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="73" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B261" s="79" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="41" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="42"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="48" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="47" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="39" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="39" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="51"/>
-    </row>
-    <row r="118" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="47" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="53"/>
-    </row>
-    <row r="128" spans="2:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="30"/>
-    </row>
-    <row r="129" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="39" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="39" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="52"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="52"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="52"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="52"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="52"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="52"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="52"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="52"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="52"/>
-    </row>
-    <row r="156" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="54"/>
-    </row>
-    <row r="157" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="53"/>
-    </row>
-    <row r="162" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="30"/>
-    </row>
-    <row r="163" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="32"/>
-    </row>
-    <row r="169" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="29"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="40" t="s">
+    <row r="262" spans="2:2">
+      <c r="B262" s="75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B263" s="78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" ht="8.25" customHeight="1"/>
+    <row r="265" spans="2:2" ht="8.25" customHeight="1">
+      <c r="B265" s="30"/>
+    </row>
+    <row r="266" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="267" spans="2:2">
+      <c r="B267" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B268" s="78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" ht="17.25">
+      <c r="B269" s="81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B270" s="35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" ht="18.75">
+      <c r="B271" s="80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B273" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B276" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B279" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="281" spans="2:2">
+      <c r="B281" s="82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" ht="18.75">
+      <c r="B282" s="83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" ht="18.75">
+      <c r="B283" s="84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" ht="18.75">
+      <c r="B284" s="85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" ht="18.75">
+      <c r="B285" s="85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" ht="18.75">
+      <c r="B286" s="85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" ht="18.75">
+      <c r="B287" s="86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="34" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="30"/>
-    </row>
-    <row r="175" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" s="57" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="56"/>
-    </row>
-    <row r="182" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="59" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="60" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="39" t="s">
+    <row r="291" spans="2:2" ht="19.5">
+      <c r="B291" s="87" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="192" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" s="61"/>
-    </row>
-    <row r="204" spans="2:2" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="30"/>
-    </row>
-    <row r="205" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" s="52" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="63" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="51"/>
-    </row>
-    <row r="212" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="47" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" s="52" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="65"/>
-    </row>
-    <row r="221" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="41" t="s">
+    <row r="292" spans="2:2" ht="84.75">
+      <c r="B292" s="88" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B223" s="66" t="s">
+    <row r="293" spans="2:2" ht="18.75">
+      <c r="B293" s="91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" ht="18.75">
+      <c r="B294" s="86" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="93" t="s">
+    <row r="295" spans="2:2" ht="135.75" customHeight="1" thickBot="1">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="297" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="298" spans="2:2">
+      <c r="B298" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="68" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" s="67" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="69" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="70"/>
-    </row>
-    <row r="230" spans="2:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="30"/>
-    </row>
-    <row r="231" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" s="47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" s="67" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" s="52" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" s="47" t="s">
+    <row r="300" spans="2:2">
+      <c r="B300" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B302" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B304" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="17.25">
+      <c r="B307" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B308" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="71" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="94" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="30"/>
-    </row>
-    <row r="244" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" s="34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" s="34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="36"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" s="55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" s="72" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" s="72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="50" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="36"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" s="73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" s="73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="75"/>
-    </row>
-    <row r="261" spans="2:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="76"/>
-    </row>
-    <row r="263" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B264" s="73" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="78" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" s="73" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="79" t="s">
+    <row r="311" spans="2:2" ht="17.25">
+      <c r="B311" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B312" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="90" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" ht="66.75" thickBot="1">
+      <c r="B315" s="8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B268" s="75" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="30"/>
-    </row>
-    <row r="272" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" s="31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="78" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B275" s="81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B277" s="80" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B278" s="34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" s="39" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B281" s="39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B283" s="55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B284" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B287" s="82" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B288" s="83" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B289" s="84" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B290" s="85" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B291" s="85" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B292" s="85" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B293" s="86" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B294" s="34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B295" s="34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B296" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B297" s="87" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" ht="84.75" x14ac:dyDescent="0.3">
-      <c r="B298" s="88" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B299" s="91" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B300" s="86" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2" ht="135.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B301" s="2"/>
-    </row>
-    <row r="303" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B304" s="46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B305" s="33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B308" s="32" t="s">
+    <row r="316" spans="2:2">
+      <c r="B316" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B309" s="38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="33" t="s">
+    <row r="317" spans="2:2">
+      <c r="B317" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B311" s="46" t="s">
+    <row r="318" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B318" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="3"/>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="3"/>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="3"/>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="28" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B312" s="33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B313" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B314" s="32" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B315" s="89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B316" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B317" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B318" s="32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B319" s="90" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B320" s="34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B321" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B322" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B323" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B324" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B325" s="3"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B326" s="3"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B327" s="3"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B328" s="28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B329"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B342"/>
+    <row r="323" spans="2:2">
+      <c r="B323"/>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="7" manualBreakCount="7">
-    <brk id="34" min="1" max="1" man="1"/>
-    <brk id="63" min="1" max="1" man="1"/>
-    <brk id="92" min="1" max="1" man="1"/>
-    <brk id="127" min="1" max="1" man="1"/>
-    <brk id="161" min="1" max="1" man="1"/>
-    <brk id="202" min="1" max="1" man="1"/>
-    <brk id="242" min="1" max="1" man="1"/>
+    <brk id="28" min="1" max="1" man="1"/>
+    <brk id="57" min="1" max="1" man="1"/>
+    <brk id="86" min="1" max="1" man="1"/>
+    <brk id="121" min="1" max="1" man="1"/>
+    <brk id="155" min="1" max="1" man="1"/>
+    <brk id="196" min="1" max="1" man="1"/>
+    <brk id="236" min="1" max="1" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="109" man="1"/>
@@ -10291,13 +10781,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C9EA12-135F-4ACA-9D1D-87338E6F0D19}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10309,7 +10799,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -10321,7 +10811,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -10333,7 +10823,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -10345,7 +10835,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -10357,7 +10847,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -10369,7 +10859,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10381,7 +10871,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10393,7 +10883,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -10405,7 +10895,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10417,7 +10907,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10429,7 +10919,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10441,7 +10931,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10453,7 +10943,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10465,7 +10955,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10476,7 +10966,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10488,7 +10978,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -10500,7 +10990,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -10512,7 +11002,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -10524,7 +11014,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -10536,7 +11026,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -10548,7 +11038,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -10560,7 +11050,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -10572,7 +11062,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10584,7 +11074,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -10608,7 +11098,7 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -10632,7 +11122,7 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -10656,7 +11146,7 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -10680,7 +11170,7 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -10704,7 +11194,7 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10728,7 +11218,7 @@
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -10752,7 +11242,7 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -10776,7 +11266,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -10800,7 +11290,7 @@
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -10824,7 +11314,7 @@
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -10848,7 +11338,7 @@
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -10872,7 +11362,7 @@
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -10896,7 +11386,7 @@
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -10920,7 +11410,7 @@
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -10944,7 +11434,7 @@
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -10968,7 +11458,7 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -10992,7 +11482,7 @@
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -11016,7 +11506,7 @@
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -11040,7 +11530,7 @@
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -11064,7 +11554,7 @@
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -11088,7 +11578,7 @@
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -11112,7 +11602,7 @@
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -11136,7 +11626,7 @@
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -11160,7 +11650,7 @@
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -11184,7 +11674,7 @@
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -11208,7 +11698,7 @@
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -11220,7 +11710,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -11232,7 +11722,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -11244,7 +11734,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -11272,138 +11762,138 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="99.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1">
       <c r="B1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="116.25" thickBot="1">
+      <c r="B4" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="132.75" thickBot="1">
+      <c r="B5" s="92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="50.25" thickBot="1">
+      <c r="B6" s="92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="8" spans="2:3" ht="17.25" thickBot="1">
+      <c r="B8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="10" spans="2:3">
+      <c r="B10" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="49.5">
+      <c r="B11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="33">
+      <c r="B12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="132.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="92" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="13" t="s">
+    </row>
+    <row r="13" spans="2:3" ht="33.75" thickBot="1">
+      <c r="B13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="14" t="s">
+    </row>
+    <row r="14" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="15" spans="2:3" ht="17.25" thickBot="1">
+      <c r="B15" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+    <row r="16" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="33">
+      <c r="B18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="19" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B19" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+    <row r="21" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="22" spans="2:2">
+      <c r="B22" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13" t="s">
+    <row r="24" spans="2:2" ht="66.75" thickBot="1">
+      <c r="B24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="12" t="s">
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+    <row r="26" spans="2:2" ht="99.75" thickBot="1">
+      <c r="B26" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="28" spans="2:2">
       <c r="B28" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="17.25" thickBot="1">
       <c r="B29" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -11422,285 +11912,285 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCB6E58-9926-4E89-ABB8-474F0F1CD229}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="10" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E8" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
         <v>122</v>
       </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="16" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="E12" t="s">
         <v>125</v>
       </c>
-      <c r="E10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D13" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="E13" t="s">
         <v>130</v>
       </c>
-      <c r="E12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>281</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
         <v>280</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E15" t="s">
         <v>283</v>
-      </c>
-      <c r="E14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E15" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -11712,4 +12202,477 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55550D76-6C87-4C91-92D4-04F6AA804566}">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="49.375" customWidth="1"/>
+    <col min="6" max="6" width="46.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.5">
+      <c r="A3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33">
+      <c r="D10" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="115.5">
+      <c r="B11" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="97" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="D14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="132">
+      <c r="B15" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A2911-F142-4F0E-A9D8-7505D90C35E4}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="60.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="102" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="101" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="103"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="103" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="103" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="99" customFormat="1">
+      <c r="B17" s="99" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="99" customFormat="1">
+      <c r="B18" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="99" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" s="101" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="66">
+      <c r="B25" s="104" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D26" s="103"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="103"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28" s="103"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" s="103"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" s="103"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="49.5">
+      <c r="B37" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="181.5">
+      <c r="B38" s="98" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>